--- a/data-raw/dataxl/D2025_11_25_1430.xlsx
+++ b/data-raw/dataxl/D2025_11_25_1430.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5052e625e7f51e50/Desktop/landslide_Ti/Landslides_YMAPR/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5052e625e7f51e50/Desktop/landslide_Ti/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{B9EB2DE6-9450-4E55-9572-B0C59742FA0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5EF46613-E3F8-405C-BD1F-03668D4382DD}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{B9EB2DE6-9450-4E55-9572-B0C59742FA0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6FF8A9ED-226C-4B5F-BF49-709884E95028}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B485AC47-4FF2-41C5-A718-0248200C627F}"/>
   </bookViews>
@@ -665,8 +665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41E35E9D-29D9-49F8-B83E-6CE4627A08E5}">
   <dimension ref="A1:L63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C73" sqref="C73"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="K64" sqref="K64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2893,6 +2893,9 @@
       <c r="J63" s="3" t="s">
         <v>78</v>
       </c>
+      <c r="K63">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
